--- a/bin/Debug/net8.0-windows/Workbook.xlsx
+++ b/bin/Debug/net8.0-windows/Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callu\source\repos\battleship\bin\Debug\net8.0-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1C96EA9-BF7A-4694-AC0C-1A73C7A51066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63E2268-02BF-4AD4-A36D-3D81CB9C1415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0172028B-57F9-43FE-9C0D-C9E65189757B}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,13 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="13">
   <si>
-    <t>playerBoardArray(</t>
-  </si>
-  <si>
     <t>,</t>
-  </si>
-  <si>
-    <t>) = picPlayer</t>
   </si>
   <si>
     <t>A</t>
@@ -76,6 +69,12 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>opponentBoardArray(</t>
+  </si>
+  <si>
+    <t>) = picOpp</t>
   </si>
 </sst>
 </file>
@@ -429,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF6F441-85F1-4D18-9D31-A0388F4A3169}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,2702 +441,2702 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1">
         <v>1</v>
       </c>
       <c r="H1" t="str">
         <f>A1&amp;B1&amp;C1&amp;D1&amp;E1&amp;F1&amp;G1</f>
-        <v>playerBoardArray(1,1) = picPlayerA1</v>
+        <v>opponentBoardArray(1,1) = picOppA1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H65" si="0">A2&amp;B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2</f>
-        <v>playerBoardArray(1,2) = picPlayerA2</v>
+        <v>opponentBoardArray(1,2) = picOppA2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(1,3) = picPlayerA3</v>
+        <v>opponentBoardArray(1,3) = picOppA3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(1,4) = picPlayerA4</v>
+        <v>opponentBoardArray(1,4) = picOppA4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(1,5) = picPlayerA5</v>
+        <v>opponentBoardArray(1,5) = picOppA5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>6</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(1,6) = picPlayerA6</v>
+        <v>opponentBoardArray(1,6) = picOppA6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>7</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(1,7) = picPlayerA7</v>
+        <v>opponentBoardArray(1,7) = picOppA7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>8</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(1,8) = picPlayerA8</v>
+        <v>opponentBoardArray(1,8) = picOppA8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>9</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(1,9) = picPlayerA9</v>
+        <v>opponentBoardArray(1,9) = picOppA9</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(1,10) = picPlayerA10</v>
+        <v>opponentBoardArray(1,10) = picOppA10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(2,1) = picPlayerB1</v>
+        <v>opponentBoardArray(2,1) = picOppB1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(2,2) = picPlayerB2</v>
+        <v>opponentBoardArray(2,2) = picOppB2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(2,3) = picPlayerB3</v>
+        <v>opponentBoardArray(2,3) = picOppB3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <v>4</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(2,4) = picPlayerB4</v>
+        <v>opponentBoardArray(2,4) = picOppB4</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>5</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(2,5) = picPlayerB5</v>
+        <v>opponentBoardArray(2,5) = picOppB5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>6</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(2,6) = picPlayerB6</v>
+        <v>opponentBoardArray(2,6) = picOppB6</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17">
         <v>7</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(2,7) = picPlayerB7</v>
+        <v>opponentBoardArray(2,7) = picOppB7</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>8</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(2,8) = picPlayerB8</v>
+        <v>opponentBoardArray(2,8) = picOppB8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>9</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(2,9) = picPlayerB9</v>
+        <v>opponentBoardArray(2,9) = picOppB9</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>10</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(2,10) = picPlayerB10</v>
+        <v>opponentBoardArray(2,10) = picOppB10</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(3,1) = picPlayerC1</v>
+        <v>opponentBoardArray(3,1) = picOppC1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(3,2) = picPlayerC2</v>
+        <v>opponentBoardArray(3,2) = picOppC2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(3,3) = picPlayerC3</v>
+        <v>opponentBoardArray(3,3) = picOppC3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(3,4) = picPlayerC4</v>
+        <v>opponentBoardArray(3,4) = picOppC4</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <v>5</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(3,5) = picPlayerC5</v>
+        <v>opponentBoardArray(3,5) = picOppC5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>6</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(3,6) = picPlayerC6</v>
+        <v>opponentBoardArray(3,6) = picOppC6</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G27">
         <v>7</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(3,7) = picPlayerC7</v>
+        <v>opponentBoardArray(3,7) = picOppC7</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G28">
         <v>8</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(3,8) = picPlayerC8</v>
+        <v>opponentBoardArray(3,8) = picOppC8</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G29">
         <v>9</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(3,9) = picPlayerC9</v>
+        <v>opponentBoardArray(3,9) = picOppC9</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G30">
         <v>10</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(3,10) = picPlayerC10</v>
+        <v>opponentBoardArray(3,10) = picOppC10</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(4,1) = picPlayerD1</v>
+        <v>opponentBoardArray(4,1) = picOppD1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(4,2) = picPlayerD2</v>
+        <v>opponentBoardArray(4,2) = picOppD2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(4,3) = picPlayerD3</v>
+        <v>opponentBoardArray(4,3) = picOppD3</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G34">
         <v>4</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(4,4) = picPlayerD4</v>
+        <v>opponentBoardArray(4,4) = picOppD4</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G35">
         <v>5</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(4,5) = picPlayerD5</v>
+        <v>opponentBoardArray(4,5) = picOppD5</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G36">
         <v>6</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(4,6) = picPlayerD6</v>
+        <v>opponentBoardArray(4,6) = picOppD6</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G37">
         <v>7</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(4,7) = picPlayerD7</v>
+        <v>opponentBoardArray(4,7) = picOppD7</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G38">
         <v>8</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(4,8) = picPlayerD8</v>
+        <v>opponentBoardArray(4,8) = picOppD8</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G39">
         <v>9</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(4,9) = picPlayerD9</v>
+        <v>opponentBoardArray(4,9) = picOppD9</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G40">
         <v>10</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(4,10) = picPlayerD10</v>
+        <v>opponentBoardArray(4,10) = picOppD10</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(5,1) = picPlayerE1</v>
+        <v>opponentBoardArray(5,1) = picOppE1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G42">
         <v>2</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(5,2) = picPlayerE2</v>
+        <v>opponentBoardArray(5,2) = picOppE2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G43">
         <v>3</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(5,3) = picPlayerE3</v>
+        <v>opponentBoardArray(5,3) = picOppE3</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G44">
         <v>4</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(5,4) = picPlayerE4</v>
+        <v>opponentBoardArray(5,4) = picOppE4</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G45">
         <v>5</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(5,5) = picPlayerE5</v>
+        <v>opponentBoardArray(5,5) = picOppE5</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G46">
         <v>6</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(5,6) = picPlayerE6</v>
+        <v>opponentBoardArray(5,6) = picOppE6</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G47">
         <v>7</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(5,7) = picPlayerE7</v>
+        <v>opponentBoardArray(5,7) = picOppE7</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G48">
         <v>8</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(5,8) = picPlayerE8</v>
+        <v>opponentBoardArray(5,8) = picOppE8</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G49">
         <v>9</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(5,9) = picPlayerE9</v>
+        <v>opponentBoardArray(5,9) = picOppE9</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G50">
         <v>10</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(5,10) = picPlayerE10</v>
+        <v>opponentBoardArray(5,10) = picOppE10</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(6,1) = picPlayerF1</v>
+        <v>opponentBoardArray(6,1) = picOppF1</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(6,2) = picPlayerF2</v>
+        <v>opponentBoardArray(6,2) = picOppF2</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G53">
         <v>3</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(6,3) = picPlayerF3</v>
+        <v>opponentBoardArray(6,3) = picOppF3</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G54">
         <v>4</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(6,4) = picPlayerF4</v>
+        <v>opponentBoardArray(6,4) = picOppF4</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G55">
         <v>5</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(6,5) = picPlayerF5</v>
+        <v>opponentBoardArray(6,5) = picOppF5</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B56">
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G56">
         <v>6</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(6,6) = picPlayerF6</v>
+        <v>opponentBoardArray(6,6) = picOppF6</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B57">
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G57">
         <v>7</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(6,7) = picPlayerF7</v>
+        <v>opponentBoardArray(6,7) = picOppF7</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G58">
         <v>8</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(6,8) = picPlayerF8</v>
+        <v>opponentBoardArray(6,8) = picOppF8</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B59">
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G59">
         <v>9</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(6,9) = picPlayerF9</v>
+        <v>opponentBoardArray(6,9) = picOppF9</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G60">
         <v>10</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(6,10) = picPlayerF10</v>
+        <v>opponentBoardArray(6,10) = picOppF10</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B61">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(7,1) = picPlayerG1</v>
+        <v>opponentBoardArray(7,1) = picOppG1</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B62">
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G62">
         <v>2</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(7,2) = picPlayerG2</v>
+        <v>opponentBoardArray(7,2) = picOppG2</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B63">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G63">
         <v>3</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(7,3) = picPlayerG3</v>
+        <v>opponentBoardArray(7,3) = picOppG3</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B64">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G64">
         <v>4</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(7,4) = picPlayerG4</v>
+        <v>opponentBoardArray(7,4) = picOppG4</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B65">
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G65">
         <v>5</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
-        <v>playerBoardArray(7,5) = picPlayerG5</v>
+        <v>opponentBoardArray(7,5) = picOppG5</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B66">
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G66">
         <v>6</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" ref="H66:H100" si="1">A66&amp;B66&amp;C66&amp;D66&amp;E66&amp;F66&amp;G66</f>
-        <v>playerBoardArray(7,6) = picPlayerG6</v>
+        <v>opponentBoardArray(7,6) = picOppG6</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B67">
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G67">
         <v>7</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(7,7) = picPlayerG7</v>
+        <v>opponentBoardArray(7,7) = picOppG7</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B68">
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G68">
         <v>8</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(7,8) = picPlayerG8</v>
+        <v>opponentBoardArray(7,8) = picOppG8</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B69">
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G69">
         <v>9</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(7,9) = picPlayerG9</v>
+        <v>opponentBoardArray(7,9) = picOppG9</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B70">
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G70">
         <v>10</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(7,10) = picPlayerG10</v>
+        <v>opponentBoardArray(7,10) = picOppG10</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B71">
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(8,1) = picPlayerH1</v>
+        <v>opponentBoardArray(8,1) = picOppH1</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B72">
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G72">
         <v>2</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(8,2) = picPlayerH2</v>
+        <v>opponentBoardArray(8,2) = picOppH2</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B73">
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G73">
         <v>3</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(8,3) = picPlayerH3</v>
+        <v>opponentBoardArray(8,3) = picOppH3</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B74">
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G74">
         <v>4</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(8,4) = picPlayerH4</v>
+        <v>opponentBoardArray(8,4) = picOppH4</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B75">
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G75">
         <v>5</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(8,5) = picPlayerH5</v>
+        <v>opponentBoardArray(8,5) = picOppH5</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B76">
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G76">
         <v>6</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(8,6) = picPlayerH6</v>
+        <v>opponentBoardArray(8,6) = picOppH6</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B77">
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G77">
         <v>7</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(8,7) = picPlayerH7</v>
+        <v>opponentBoardArray(8,7) = picOppH7</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B78">
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G78">
         <v>8</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(8,8) = picPlayerH8</v>
+        <v>opponentBoardArray(8,8) = picOppH8</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B79">
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G79">
         <v>9</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(8,9) = picPlayerH9</v>
+        <v>opponentBoardArray(8,9) = picOppH9</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B80">
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G80">
         <v>10</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(8,10) = picPlayerH10</v>
+        <v>opponentBoardArray(8,10) = picOppH10</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B81">
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(9,1) = picPlayerI1</v>
+        <v>opponentBoardArray(9,1) = picOppI1</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B82">
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G82">
         <v>2</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(9,2) = picPlayerI2</v>
+        <v>opponentBoardArray(9,2) = picOppI2</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B83">
         <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G83">
         <v>3</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(9,3) = picPlayerI3</v>
+        <v>opponentBoardArray(9,3) = picOppI3</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B84">
         <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>4</v>
       </c>
       <c r="E84" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G84">
         <v>4</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(9,4) = picPlayerI4</v>
+        <v>opponentBoardArray(9,4) = picOppI4</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B85">
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G85">
         <v>5</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(9,5) = picPlayerI5</v>
+        <v>opponentBoardArray(9,5) = picOppI5</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B86">
         <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G86">
         <v>6</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(9,6) = picPlayerI6</v>
+        <v>opponentBoardArray(9,6) = picOppI6</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B87">
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G87">
         <v>7</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(9,7) = picPlayerI7</v>
+        <v>opponentBoardArray(9,7) = picOppI7</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B88">
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G88">
         <v>8</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(9,8) = picPlayerI8</v>
+        <v>opponentBoardArray(9,8) = picOppI8</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B89">
         <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G89">
         <v>9</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(9,9) = picPlayerI9</v>
+        <v>opponentBoardArray(9,9) = picOppI9</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B90">
         <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G90">
         <v>10</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(9,10) = picPlayerI10</v>
+        <v>opponentBoardArray(9,10) = picOppI10</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B91">
         <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(10,1) = picPlayerJ1</v>
+        <v>opponentBoardArray(10,1) = picOppJ1</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B92">
         <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G92">
         <v>2</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(10,2) = picPlayerJ2</v>
+        <v>opponentBoardArray(10,2) = picOppJ2</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B93">
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G93">
         <v>3</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(10,3) = picPlayerJ3</v>
+        <v>opponentBoardArray(10,3) = picOppJ3</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B94">
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G94">
         <v>4</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(10,4) = picPlayerJ4</v>
+        <v>opponentBoardArray(10,4) = picOppJ4</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B95">
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G95">
         <v>5</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(10,5) = picPlayerJ5</v>
+        <v>opponentBoardArray(10,5) = picOppJ5</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B96">
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>6</v>
       </c>
       <c r="E96" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G96">
         <v>6</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(10,6) = picPlayerJ6</v>
+        <v>opponentBoardArray(10,6) = picOppJ6</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B97">
         <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G97">
         <v>7</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(10,7) = picPlayerJ7</v>
+        <v>opponentBoardArray(10,7) = picOppJ7</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B98">
         <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G98">
         <v>8</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(10,8) = picPlayerJ8</v>
+        <v>opponentBoardArray(10,8) = picOppJ8</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B99">
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G99">
         <v>9</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(10,9) = picPlayerJ9</v>
+        <v>opponentBoardArray(10,9) = picOppJ9</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B100">
         <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G100">
         <v>10</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="1"/>
-        <v>playerBoardArray(10,10) = picPlayerJ10</v>
+        <v>opponentBoardArray(10,10) = picOppJ10</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Debug/net8.0-windows/Workbook.xlsx
+++ b/bin/Debug/net8.0-windows/Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callu\source\repos\battleship\bin\Debug\net8.0-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63E2268-02BF-4AD4-A36D-3D81CB9C1415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD6928B-8254-4457-A520-714BA984D43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0172028B-57F9-43FE-9C0D-C9E65189757B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="15">
   <si>
     <t>,</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>) = picOpp</t>
+  </si>
+  <si>
+    <t>picOpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.Click, </t>
   </si>
 </sst>
 </file>
@@ -426,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF6F441-85F1-4D18-9D31-A0388F4A3169}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H100"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +445,7 @@
     <col min="8" max="8" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -465,8 +471,18 @@
         <f>A1&amp;B1&amp;C1&amp;D1&amp;E1&amp;F1&amp;G1</f>
         <v>opponentBoardArray(1,1) = picOppA1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="str">
+        <f>J1&amp;F1&amp;G1&amp;K1</f>
+        <v xml:space="preserve">picOppA1.Click, </v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -492,8 +508,18 @@
         <f t="shared" ref="H2:H65" si="0">A2&amp;B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2</f>
         <v>opponentBoardArray(1,2) = picOppA2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L65" si="1">J2&amp;F2&amp;G2&amp;K2</f>
+        <v xml:space="preserve">picOppA2.Click, </v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -519,8 +545,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(1,3) = picOppA3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppA3.Click, </v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -546,8 +582,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(1,4) = picOppA4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppA4.Click, </v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -573,8 +619,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(1,5) = picOppA5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppA5.Click, </v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -600,8 +656,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(1,6) = picOppA6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppA6.Click, </v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -627,8 +693,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(1,7) = picOppA7</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppA7.Click, </v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -654,8 +730,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(1,8) = picOppA8</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppA8.Click, </v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -681,8 +767,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(1,9) = picOppA9</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppA9.Click, </v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -708,8 +804,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(1,10) = picOppA10</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppA10.Click, </v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -735,8 +841,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(2,1) = picOppB1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppB1.Click, </v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -762,8 +878,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(2,2) = picOppB2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppB2.Click, </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -789,8 +915,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(2,3) = picOppB3</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppB3.Click, </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -816,8 +952,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(2,4) = picOppB4</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppB4.Click, </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -843,8 +989,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(2,5) = picOppB5</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppB5.Click, </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -870,8 +1026,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(2,6) = picOppB6</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppB6.Click, </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -897,8 +1063,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(2,7) = picOppB7</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppB7.Click, </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -924,8 +1100,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(2,8) = picOppB8</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppB8.Click, </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -951,8 +1137,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(2,9) = picOppB9</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppB9.Click, </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1174,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(2,10) = picOppB10</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppB10.Click, </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1211,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(3,1) = picOppC1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppC1.Click, </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1248,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(3,2) = picOppC2</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppC2.Click, </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1059,8 +1285,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(3,3) = picOppC3</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppC3.Click, </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1086,8 +1322,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(3,4) = picOppC4</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppC4.Click, </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1113,8 +1359,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(3,5) = picOppC5</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppC5.Click, </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1140,8 +1396,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(3,6) = picOppC6</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppC6.Click, </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1167,8 +1433,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(3,7) = picOppC7</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppC7.Click, </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1194,8 +1470,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(3,8) = picOppC8</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppC8.Click, </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1221,8 +1507,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(3,9) = picOppC9</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppC9.Click, </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1248,8 +1544,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(3,10) = picOppC10</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppC10.Click, </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1275,8 +1581,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(4,1) = picOppD1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppD1.Click, </v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1302,8 +1618,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(4,2) = picOppD2</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppD2.Click, </v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1329,8 +1655,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(4,3) = picOppD3</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppD3.Click, </v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1356,8 +1692,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(4,4) = picOppD4</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppD4.Click, </v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1383,8 +1729,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(4,5) = picOppD5</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppD5.Click, </v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1410,8 +1766,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(4,6) = picOppD6</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppD6.Click, </v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1437,8 +1803,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(4,7) = picOppD7</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppD7.Click, </v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1464,8 +1840,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(4,8) = picOppD8</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppD8.Click, </v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1491,8 +1877,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(4,9) = picOppD9</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppD9.Click, </v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1518,8 +1914,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(4,10) = picOppD10</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppD10.Click, </v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1545,8 +1951,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(5,1) = picOppE1</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppE1.Click, </v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1572,8 +1988,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(5,2) = picOppE2</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppE2.Click, </v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1599,8 +2025,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(5,3) = picOppE3</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppE3.Click, </v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -1626,8 +2062,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(5,4) = picOppE4</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppE4.Click, </v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1653,8 +2099,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(5,5) = picOppE5</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppE5.Click, </v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -1680,8 +2136,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(5,6) = picOppE6</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppE6.Click, </v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -1707,8 +2173,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(5,7) = picOppE7</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppE7.Click, </v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -1734,8 +2210,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(5,8) = picOppE8</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppE8.Click, </v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -1761,8 +2247,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(5,9) = picOppE9</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppE9.Click, </v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -1788,8 +2284,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(5,10) = picOppE10</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppE10.Click, </v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -1815,8 +2321,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(6,1) = picOppF1</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppF1.Click, </v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -1842,8 +2358,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(6,2) = picOppF2</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppF2.Click, </v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -1869,8 +2395,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(6,3) = picOppF3</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppF3.Click, </v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -1896,8 +2432,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(6,4) = picOppF4</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppF4.Click, </v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -1923,8 +2469,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(6,5) = picOppF5</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppF5.Click, </v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -1950,8 +2506,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(6,6) = picOppF6</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppF6.Click, </v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -1977,8 +2543,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(6,7) = picOppF7</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppF7.Click, </v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -2004,8 +2580,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(6,8) = picOppF8</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppF8.Click, </v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -2031,8 +2617,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(6,9) = picOppF9</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppF9.Click, </v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -2058,8 +2654,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(6,10) = picOppF10</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppF10.Click, </v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -2085,8 +2691,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(7,1) = picOppG1</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppG1.Click, </v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -2112,8 +2728,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(7,2) = picOppG2</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppG2.Click, </v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -2139,8 +2765,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(7,3) = picOppG3</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppG3.Click, </v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -2166,8 +2802,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(7,4) = picOppG4</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppG4.Click, </v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -2193,8 +2839,18 @@
         <f t="shared" si="0"/>
         <v>opponentBoardArray(7,5) = picOppG5</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" t="s">
+        <v>14</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">picOppG5.Click, </v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -2217,11 +2873,21 @@
         <v>6</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" ref="H66:H100" si="1">A66&amp;B66&amp;C66&amp;D66&amp;E66&amp;F66&amp;G66</f>
+        <f t="shared" ref="H66:H100" si="2">A66&amp;B66&amp;C66&amp;D66&amp;E66&amp;F66&amp;G66</f>
         <v>opponentBoardArray(7,6) = picOppG6</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" t="s">
+        <v>14</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" ref="L66:L100" si="3">J66&amp;F66&amp;G66&amp;K66</f>
+        <v xml:space="preserve">picOppG6.Click, </v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -2244,11 +2910,21 @@
         <v>7</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(7,7) = picOppG7</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppG7.Click, </v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -2271,11 +2947,21 @@
         <v>8</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(7,8) = picOppG8</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" t="s">
+        <v>14</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppG8.Click, </v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2298,11 +2984,21 @@
         <v>9</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(7,9) = picOppG9</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" t="s">
+        <v>14</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppG9.Click, </v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -2325,11 +3021,21 @@
         <v>10</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(7,10) = picOppG10</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J70" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" t="s">
+        <v>14</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppG10.Click, </v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -2352,11 +3058,21 @@
         <v>1</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(8,1) = picOppH1</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
+        <v>13</v>
+      </c>
+      <c r="K71" t="s">
+        <v>14</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppH1.Click, </v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -2379,11 +3095,21 @@
         <v>2</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(8,2) = picOppH2</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>13</v>
+      </c>
+      <c r="K72" t="s">
+        <v>14</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppH2.Click, </v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -2406,11 +3132,21 @@
         <v>3</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(8,3) = picOppH3</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J73" t="s">
+        <v>13</v>
+      </c>
+      <c r="K73" t="s">
+        <v>14</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppH3.Click, </v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -2433,11 +3169,21 @@
         <v>4</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(8,4) = picOppH4</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>13</v>
+      </c>
+      <c r="K74" t="s">
+        <v>14</v>
+      </c>
+      <c r="L74" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppH4.Click, </v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -2460,11 +3206,21 @@
         <v>5</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(8,5) = picOppH5</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>13</v>
+      </c>
+      <c r="K75" t="s">
+        <v>14</v>
+      </c>
+      <c r="L75" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppH5.Click, </v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -2487,11 +3243,21 @@
         <v>6</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(8,6) = picOppH6</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>13</v>
+      </c>
+      <c r="K76" t="s">
+        <v>14</v>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppH6.Click, </v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -2514,11 +3280,21 @@
         <v>7</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(8,7) = picOppH7</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K77" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppH7.Click, </v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -2541,11 +3317,21 @@
         <v>8</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(8,8) = picOppH8</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K78" t="s">
+        <v>14</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppH8.Click, </v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -2568,11 +3354,21 @@
         <v>9</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(8,9) = picOppH9</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K79" t="s">
+        <v>14</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppH9.Click, </v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -2595,11 +3391,21 @@
         <v>10</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(8,10) = picOppH10</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
+        <v>13</v>
+      </c>
+      <c r="K80" t="s">
+        <v>14</v>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppH10.Click, </v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -2622,11 +3428,21 @@
         <v>1</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(9,1) = picOppI1</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>13</v>
+      </c>
+      <c r="K81" t="s">
+        <v>14</v>
+      </c>
+      <c r="L81" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppI1.Click, </v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -2649,11 +3465,21 @@
         <v>2</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(9,2) = picOppI2</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
+        <v>13</v>
+      </c>
+      <c r="K82" t="s">
+        <v>14</v>
+      </c>
+      <c r="L82" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppI2.Click, </v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -2676,11 +3502,21 @@
         <v>3</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(9,3) = picOppI3</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
+        <v>13</v>
+      </c>
+      <c r="K83" t="s">
+        <v>14</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppI3.Click, </v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -2703,11 +3539,21 @@
         <v>4</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(9,4) = picOppI4</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>13</v>
+      </c>
+      <c r="K84" t="s">
+        <v>14</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppI4.Click, </v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -2730,11 +3576,21 @@
         <v>5</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(9,5) = picOppI5</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J85" t="s">
+        <v>13</v>
+      </c>
+      <c r="K85" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppI5.Click, </v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -2757,11 +3613,21 @@
         <v>6</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(9,6) = picOppI6</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>13</v>
+      </c>
+      <c r="K86" t="s">
+        <v>14</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppI6.Click, </v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -2784,11 +3650,21 @@
         <v>7</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(9,7) = picOppI7</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>13</v>
+      </c>
+      <c r="K87" t="s">
+        <v>14</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppI7.Click, </v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -2811,11 +3687,21 @@
         <v>8</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(9,8) = picOppI8</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>13</v>
+      </c>
+      <c r="K88" t="s">
+        <v>14</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppI8.Click, </v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -2838,11 +3724,21 @@
         <v>9</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(9,9) = picOppI9</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J89" t="s">
+        <v>13</v>
+      </c>
+      <c r="K89" t="s">
+        <v>14</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppI9.Click, </v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -2865,11 +3761,21 @@
         <v>10</v>
       </c>
       <c r="H90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(9,10) = picOppI10</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
+        <v>13</v>
+      </c>
+      <c r="K90" t="s">
+        <v>14</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppI10.Click, </v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -2892,11 +3798,21 @@
         <v>1</v>
       </c>
       <c r="H91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(10,1) = picOppJ1</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
+        <v>13</v>
+      </c>
+      <c r="K91" t="s">
+        <v>14</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppJ1.Click, </v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -2919,11 +3835,21 @@
         <v>2</v>
       </c>
       <c r="H92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(10,2) = picOppJ2</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>13</v>
+      </c>
+      <c r="K92" t="s">
+        <v>14</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppJ2.Click, </v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -2946,11 +3872,21 @@
         <v>3</v>
       </c>
       <c r="H93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(10,3) = picOppJ3</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
+        <v>13</v>
+      </c>
+      <c r="K93" t="s">
+        <v>14</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppJ3.Click, </v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -2973,11 +3909,21 @@
         <v>4</v>
       </c>
       <c r="H94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(10,4) = picOppJ4</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J94" t="s">
+        <v>13</v>
+      </c>
+      <c r="K94" t="s">
+        <v>14</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppJ4.Click, </v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -3000,11 +3946,21 @@
         <v>5</v>
       </c>
       <c r="H95" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(10,5) = picOppJ5</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J95" t="s">
+        <v>13</v>
+      </c>
+      <c r="K95" t="s">
+        <v>14</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppJ5.Click, </v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -3027,11 +3983,21 @@
         <v>6</v>
       </c>
       <c r="H96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(10,6) = picOppJ6</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J96" t="s">
+        <v>13</v>
+      </c>
+      <c r="K96" t="s">
+        <v>14</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppJ6.Click, </v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -3054,11 +4020,21 @@
         <v>7</v>
       </c>
       <c r="H97" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(10,7) = picOppJ7</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J97" t="s">
+        <v>13</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppJ7.Click, </v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -3081,11 +4057,21 @@
         <v>8</v>
       </c>
       <c r="H98" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(10,8) = picOppJ8</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J98" t="s">
+        <v>13</v>
+      </c>
+      <c r="K98" t="s">
+        <v>14</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppJ8.Click, </v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -3108,11 +4094,21 @@
         <v>9</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(10,9) = picOppJ9</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J99" t="s">
+        <v>13</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppJ9.Click, </v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -3135,8 +4131,18 @@
         <v>10</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>opponentBoardArray(10,10) = picOppJ10</v>
+      </c>
+      <c r="J100" t="s">
+        <v>13</v>
+      </c>
+      <c r="K100" t="s">
+        <v>14</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">picOppJ10.Click, </v>
       </c>
     </row>
   </sheetData>
